--- a/CASUAL/LA TICC/VILLANUEVA, RICHELLE ALEGRE.xlsx
+++ b/CASUAL/LA TICC/VILLANUEVA, RICHELLE ALEGRE.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="105">
   <si>
     <t>PERIOD</t>
   </si>
@@ -330,6 +330,27 @@
   </si>
   <si>
     <t>UT(0-0-10)</t>
+  </si>
+  <si>
+    <t>UT(0-0-29)</t>
+  </si>
+  <si>
+    <t>UT(0-0-49)</t>
+  </si>
+  <si>
+    <t>UT(0-1-33)</t>
+  </si>
+  <si>
+    <t>UT(0-1-0)</t>
+  </si>
+  <si>
+    <t>UT(0-0-19)</t>
+  </si>
+  <si>
+    <t>UT(0-1-5)</t>
+  </si>
+  <si>
+    <t>UT(0-0-32)</t>
   </si>
 </sst>
 </file>
@@ -1629,7 +1650,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="F89" sqref="F89"/>
+      <selection pane="bottomLeft" activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1790,7 +1811,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>56.483000000000004</v>
+        <v>55.760000000000005</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2066,7 +2087,7 @@
       <c r="D21" s="37"/>
       <c r="E21" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>99.191000000000003</v>
+        <v>98.468000000000004</v>
       </c>
       <c r="F21" s="20"/>
       <c r="G21" s="13" t="str">
@@ -2091,7 +2112,7 @@
       <c r="D22" s="37"/>
       <c r="E22" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>99.191000000000003</v>
+        <v>98.468000000000004</v>
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="13" t="str">
@@ -2116,7 +2137,7 @@
       <c r="D23" s="37"/>
       <c r="E23" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>99.191000000000003</v>
+        <v>98.468000000000004</v>
       </c>
       <c r="F23" s="20"/>
       <c r="G23" s="13" t="str">
@@ -2167,7 +2188,7 @@
       <c r="D25" s="37"/>
       <c r="E25" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>99.191000000000003</v>
+        <v>98.468000000000004</v>
       </c>
       <c r="F25" s="20"/>
       <c r="G25" s="13" t="str">
@@ -3279,11 +3300,15 @@
       <c r="A77" s="38">
         <v>44652</v>
       </c>
-      <c r="B77" s="20"/>
+      <c r="B77" s="20" t="s">
+        <v>104</v>
+      </c>
       <c r="C77" s="13">
         <v>1.25</v>
       </c>
-      <c r="D77" s="37"/>
+      <c r="D77" s="37">
+        <v>6.7000000000000004E-2</v>
+      </c>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
       <c r="G77" s="13">
@@ -3299,11 +3324,15 @@
       <c r="A78" s="38">
         <v>44682</v>
       </c>
-      <c r="B78" s="20"/>
+      <c r="B78" s="20" t="s">
+        <v>103</v>
+      </c>
       <c r="C78" s="13">
         <v>1.25</v>
       </c>
-      <c r="D78" s="37"/>
+      <c r="D78" s="37">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
       <c r="G78" s="13">
@@ -3319,11 +3348,15 @@
       <c r="A79" s="38">
         <v>44713</v>
       </c>
-      <c r="B79" s="20"/>
+      <c r="B79" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="C79" s="13">
         <v>1.25</v>
       </c>
-      <c r="D79" s="37"/>
+      <c r="D79" s="37">
+        <v>0.04</v>
+      </c>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
       <c r="G79" s="13">
@@ -3339,11 +3372,15 @@
       <c r="A80" s="38">
         <v>44743</v>
       </c>
-      <c r="B80" s="20"/>
+      <c r="B80" s="20" t="s">
+        <v>101</v>
+      </c>
       <c r="C80" s="13">
         <v>1.25</v>
       </c>
-      <c r="D80" s="37"/>
+      <c r="D80" s="37">
+        <v>0.125</v>
+      </c>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
       <c r="G80" s="13">
@@ -3359,11 +3396,15 @@
       <c r="A81" s="38">
         <v>44774</v>
       </c>
-      <c r="B81" s="20"/>
+      <c r="B81" s="20" t="s">
+        <v>100</v>
+      </c>
       <c r="C81" s="13">
         <v>1.25</v>
       </c>
-      <c r="D81" s="37"/>
+      <c r="D81" s="37">
+        <v>0.19400000000000001</v>
+      </c>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
       <c r="G81" s="13">
@@ -3379,11 +3420,15 @@
       <c r="A82" s="38">
         <v>44805</v>
       </c>
-      <c r="B82" s="20"/>
+      <c r="B82" s="20" t="s">
+        <v>99</v>
+      </c>
       <c r="C82" s="13">
         <v>1.25</v>
       </c>
-      <c r="D82" s="37"/>
+      <c r="D82" s="37">
+        <v>0.10200000000000001</v>
+      </c>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
       <c r="G82" s="13">
@@ -3399,11 +3444,15 @@
       <c r="A83" s="38">
         <v>44835</v>
       </c>
-      <c r="B83" s="20"/>
+      <c r="B83" s="20" t="s">
+        <v>98</v>
+      </c>
       <c r="C83" s="13">
         <v>1.25</v>
       </c>
-      <c r="D83" s="37"/>
+      <c r="D83" s="37">
+        <v>6.0000000000000019E-2</v>
+      </c>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
       <c r="G83" s="13">
@@ -8903,17 +8952,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -9015,11 +9064,11 @@
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G3" s="43">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>2.1000000000000005E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="J3" s="49"/>
       <c r="K3" s="35">

--- a/CASUAL/LA TICC/VILLANUEVA, RICHELLE ALEGRE.xlsx
+++ b/CASUAL/LA TICC/VILLANUEVA, RICHELLE ALEGRE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA TICC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA TICC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9945A238-726A-4AAD-8B8F-0DA0E92E1597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="105">
   <si>
     <t>PERIOD</t>
   </si>
@@ -356,7 +357,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1269,7 +1270,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1286,25 +1287,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K267" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K267" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1316,25 +1317,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K112" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A8:K112" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1641,34 +1642,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K267"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A70" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A100" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="E83" sqref="E83"/>
+      <selection pane="bottomLeft" activeCell="K104" sqref="K104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1689,7 +1690,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1707,7 +1708,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1729,7 +1730,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1737,7 +1738,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1750,7 +1751,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -1767,7 +1768,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1802,7 +1803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1811,7 +1812,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>55.760000000000005</v>
+        <v>57.010000000000005</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1821,12 +1822,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>50.75</v>
+        <v>51</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
         <v>44</v>
       </c>
@@ -1848,7 +1849,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="38">
         <v>43101</v>
       </c>
@@ -1868,7 +1869,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="38">
         <v>43132</v>
       </c>
@@ -1888,7 +1889,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="38">
         <v>43160</v>
       </c>
@@ -1914,7 +1915,7 @@
         <v>43186</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="38"/>
       <c r="B14" s="20" t="s">
         <v>45</v>
@@ -1936,7 +1937,7 @@
         <v>43161</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="38"/>
       <c r="B15" s="20" t="s">
         <v>46</v>
@@ -1958,7 +1959,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="38"/>
       <c r="B16" s="20" t="s">
         <v>45</v>
@@ -1978,7 +1979,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="38">
         <v>43191</v>
       </c>
@@ -2004,7 +2005,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="38"/>
       <c r="B18" s="20" t="s">
         <v>45</v>
@@ -2026,7 +2027,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="38">
         <v>43221</v>
       </c>
@@ -2052,7 +2053,7 @@
         <v>43228</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="38">
         <v>43252</v>
       </c>
@@ -2078,7 +2079,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="38"/>
       <c r="B21" s="20" t="s">
         <v>45</v>
@@ -2087,7 +2088,7 @@
       <c r="D21" s="37"/>
       <c r="E21" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>98.468000000000004</v>
+        <v>99.718000000000004</v>
       </c>
       <c r="F21" s="20"/>
       <c r="G21" s="13" t="str">
@@ -2103,7 +2104,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="38"/>
       <c r="B22" s="20" t="s">
         <v>45</v>
@@ -2112,7 +2113,7 @@
       <c r="D22" s="37"/>
       <c r="E22" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>98.468000000000004</v>
+        <v>99.718000000000004</v>
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="13" t="str">
@@ -2128,7 +2129,7 @@
         <v>43249</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="38"/>
       <c r="B23" s="20" t="s">
         <v>45</v>
@@ -2137,7 +2138,7 @@
       <c r="D23" s="37"/>
       <c r="E23" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>98.468000000000004</v>
+        <v>99.718000000000004</v>
       </c>
       <c r="F23" s="20"/>
       <c r="G23" s="13" t="str">
@@ -2153,7 +2154,7 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="38">
         <v>43282</v>
       </c>
@@ -2179,7 +2180,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="38"/>
       <c r="B25" s="20" t="s">
         <v>45</v>
@@ -2188,7 +2189,7 @@
       <c r="D25" s="37"/>
       <c r="E25" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>98.468000000000004</v>
+        <v>99.718000000000004</v>
       </c>
       <c r="F25" s="20"/>
       <c r="G25" s="13" t="str">
@@ -2204,7 +2205,7 @@
         <v>43297</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="38">
         <v>43313</v>
       </c>
@@ -2230,7 +2231,7 @@
         <v>43322</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="38">
         <v>43344</v>
       </c>
@@ -2256,7 +2257,7 @@
         <v>43367</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="38">
         <v>43374</v>
       </c>
@@ -2278,7 +2279,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="38">
         <v>43405</v>
       </c>
@@ -2304,7 +2305,7 @@
         <v>43422</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="38">
         <v>43435</v>
       </c>
@@ -2330,7 +2331,7 @@
         <v>43448</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="44" t="s">
         <v>54</v>
       </c>
@@ -2348,7 +2349,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="38">
         <v>43466</v>
       </c>
@@ -2374,7 +2375,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="38">
         <v>43497</v>
       </c>
@@ -2400,7 +2401,7 @@
         <v>43505</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="38">
         <v>43525</v>
       </c>
@@ -2426,7 +2427,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="38"/>
       <c r="B35" s="20" t="s">
         <v>45</v>
@@ -2448,7 +2449,7 @@
         <v>43107</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="38"/>
       <c r="B36" s="20" t="s">
         <v>46</v>
@@ -2470,7 +2471,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="38">
         <v>43556</v>
       </c>
@@ -2496,7 +2497,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="38"/>
       <c r="B38" s="20" t="s">
         <v>46</v>
@@ -2518,7 +2519,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="38">
         <v>43586</v>
       </c>
@@ -2544,7 +2545,7 @@
         <v>43605</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="38">
         <v>43617</v>
       </c>
@@ -2570,7 +2571,7 @@
         <v>43640</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="38">
         <v>43647</v>
       </c>
@@ -2590,7 +2591,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="38">
         <v>43678</v>
       </c>
@@ -2610,7 +2611,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="38">
         <v>43709</v>
       </c>
@@ -2630,7 +2631,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="38">
         <v>43739</v>
       </c>
@@ -2654,7 +2655,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="38">
         <v>43770</v>
       </c>
@@ -2674,7 +2675,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="38">
         <v>43800</v>
       </c>
@@ -2694,7 +2695,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="44" t="s">
         <v>71</v>
       </c>
@@ -2712,7 +2713,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="38">
         <v>43831</v>
       </c>
@@ -2732,7 +2733,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="38">
         <v>43862</v>
       </c>
@@ -2752,7 +2753,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="38">
         <v>43891</v>
       </c>
@@ -2772,7 +2773,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="38">
         <v>43922</v>
       </c>
@@ -2792,7 +2793,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="15"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="38">
         <v>43952</v>
       </c>
@@ -2812,7 +2813,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="38">
         <v>43983</v>
       </c>
@@ -2832,7 +2833,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="38">
         <v>44013</v>
       </c>
@@ -2852,7 +2853,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="38">
         <v>44044</v>
       </c>
@@ -2872,7 +2873,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="38">
         <v>44075</v>
       </c>
@@ -2892,7 +2893,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="38">
         <v>44105</v>
       </c>
@@ -2912,7 +2913,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="38">
         <v>44136</v>
       </c>
@@ -2932,7 +2933,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="38">
         <v>44166</v>
       </c>
@@ -2956,7 +2957,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="44" t="s">
         <v>79</v>
       </c>
@@ -2974,7 +2975,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="38">
         <v>44197</v>
       </c>
@@ -2994,7 +2995,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="38">
         <v>44228</v>
       </c>
@@ -3014,7 +3015,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="38">
         <v>44256</v>
       </c>
@@ -3034,7 +3035,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="38">
         <v>44287</v>
       </c>
@@ -3054,7 +3055,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="38">
         <v>44317</v>
       </c>
@@ -3074,7 +3075,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="38">
         <v>44348</v>
       </c>
@@ -3094,7 +3095,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="38">
         <v>44378</v>
       </c>
@@ -3114,7 +3115,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="38">
         <v>44409</v>
       </c>
@@ -3134,7 +3135,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="38">
         <v>44440</v>
       </c>
@@ -3154,7 +3155,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="38">
         <v>44470</v>
       </c>
@@ -3174,7 +3175,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="38">
         <v>44501</v>
       </c>
@@ -3194,7 +3195,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="38">
         <v>44531</v>
       </c>
@@ -3218,7 +3219,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="44" t="s">
         <v>82</v>
       </c>
@@ -3236,7 +3237,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="38">
         <v>44562</v>
       </c>
@@ -3256,7 +3257,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="38">
         <v>44593</v>
       </c>
@@ -3276,7 +3277,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="38">
         <v>44621</v>
       </c>
@@ -3296,7 +3297,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="38">
         <v>44652</v>
       </c>
@@ -3320,7 +3321,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="38">
         <v>44682</v>
       </c>
@@ -3344,7 +3345,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="38">
         <v>44713</v>
       </c>
@@ -3368,7 +3369,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="38">
         <v>44743</v>
       </c>
@@ -3392,7 +3393,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="38">
         <v>44774</v>
       </c>
@@ -3416,7 +3417,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="38">
         <v>44805</v>
       </c>
@@ -3440,7 +3441,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="38">
         <v>44835</v>
       </c>
@@ -3464,7 +3465,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="38">
         <v>44866</v>
       </c>
@@ -3488,7 +3489,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="38">
         <v>44896</v>
       </c>
@@ -3512,7 +3513,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="38"/>
       <c r="B86" s="20" t="s">
         <v>96</v>
@@ -3532,7 +3533,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="44" t="s">
         <v>87</v>
       </c>
@@ -3550,7 +3551,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="38">
         <v>44927</v>
       </c>
@@ -3576,7 +3577,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="38"/>
       <c r="B89" s="20" t="s">
         <v>46</v>
@@ -3598,7 +3599,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="38">
         <v>44958</v>
       </c>
@@ -3624,7 +3625,7 @@
         <v>44970</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="38">
         <v>44986</v>
       </c>
@@ -3650,7 +3651,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="38">
         <v>45017</v>
       </c>
@@ -3670,7 +3671,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="38">
         <v>45047</v>
       </c>
@@ -3690,7 +3691,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="38">
         <v>45078</v>
       </c>
@@ -3714,7 +3715,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="38">
         <v>45108</v>
       </c>
@@ -3734,7 +3735,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="38">
         <v>45139</v>
       </c>
@@ -3758,7 +3759,7 @@
         <v>45154</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="38">
         <v>45170</v>
       </c>
@@ -3784,7 +3785,7 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="38">
         <v>45200</v>
       </c>
@@ -3810,7 +3811,7 @@
         <v>45205</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="38"/>
       <c r="B99" s="20" t="s">
         <v>62</v>
@@ -3832,7 +3833,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="38">
         <v>45231</v>
       </c>
@@ -3858,7 +3859,7 @@
         <v>45240</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="38">
         <v>45261</v>
       </c>
@@ -3882,7 +3883,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="44" t="s">
         <v>94</v>
       </c>
@@ -3900,25 +3901,33 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="38">
         <v>45292</v>
       </c>
-      <c r="B103" s="20"/>
-      <c r="C103" s="13"/>
+      <c r="B103" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C103" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D103" s="37"/>
       <c r="E103" s="9"/>
       <c r="F103" s="20"/>
-      <c r="G103" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H103" s="37"/>
+      <c r="G103" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H103" s="37">
+        <v>1</v>
+      </c>
       <c r="I103" s="9"/>
       <c r="J103" s="11"/>
-      <c r="K103" s="20"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K103" s="45">
+        <v>45314</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="38">
         <v>45323</v>
       </c>
@@ -3936,7 +3945,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="38">
         <v>45352</v>
       </c>
@@ -3954,7 +3963,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="38">
         <v>45383</v>
       </c>
@@ -3972,7 +3981,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="38">
         <v>45413</v>
       </c>
@@ -3990,7 +3999,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="38">
         <v>45444</v>
       </c>
@@ -4008,7 +4017,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="38">
         <v>45474</v>
       </c>
@@ -4026,7 +4035,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="38">
         <v>45505</v>
       </c>
@@ -4044,7 +4053,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="38">
         <v>45536</v>
       </c>
@@ -4062,7 +4071,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="38">
         <v>45566</v>
       </c>
@@ -4080,7 +4089,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="38">
         <v>45597</v>
       </c>
@@ -4098,7 +4107,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="38">
         <v>45627</v>
       </c>
@@ -4116,7 +4125,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="38">
         <v>45658</v>
       </c>
@@ -4134,7 +4143,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="38">
         <v>45689</v>
       </c>
@@ -4152,7 +4161,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="38">
         <v>45717</v>
       </c>
@@ -4170,7 +4179,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="38">
         <v>45748</v>
       </c>
@@ -4188,7 +4197,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="38">
         <v>45778</v>
       </c>
@@ -4206,7 +4215,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="38">
         <v>45809</v>
       </c>
@@ -4224,7 +4233,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="38">
         <v>45839</v>
       </c>
@@ -4242,7 +4251,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="38">
         <v>45870</v>
       </c>
@@ -4260,7 +4269,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="38">
         <v>45901</v>
       </c>
@@ -4278,7 +4287,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="38">
         <v>45931</v>
       </c>
@@ -4296,7 +4305,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="38">
         <v>45962</v>
       </c>
@@ -4314,7 +4323,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="38">
         <v>45992</v>
       </c>
@@ -4332,7 +4341,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="38">
         <v>46023</v>
       </c>
@@ -4350,7 +4359,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="38">
         <v>46054</v>
       </c>
@@ -4368,7 +4377,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="38">
         <v>46082</v>
       </c>
@@ -4386,7 +4395,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="38">
         <v>46113</v>
       </c>
@@ -4404,7 +4413,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="38">
         <v>46143</v>
       </c>
@@ -4422,7 +4431,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="38">
         <v>46174</v>
       </c>
@@ -4440,7 +4449,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="38">
         <v>46204</v>
       </c>
@@ -4458,7 +4467,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="38">
         <v>46235</v>
       </c>
@@ -4476,7 +4485,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="38">
         <v>46266</v>
       </c>
@@ -4494,7 +4503,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="38">
         <v>46296</v>
       </c>
@@ -4512,7 +4521,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="38">
         <v>46327</v>
       </c>
@@ -4530,7 +4539,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="38">
         <v>46357</v>
       </c>
@@ -4548,7 +4557,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="38">
         <v>46388</v>
       </c>
@@ -4566,7 +4575,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="38">
         <v>46419</v>
       </c>
@@ -4584,7 +4593,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="38">
         <v>46447</v>
       </c>
@@ -4602,7 +4611,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="38">
         <v>46478</v>
       </c>
@@ -4620,7 +4629,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="38">
         <v>46508</v>
       </c>
@@ -4638,7 +4647,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="38"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -4654,7 +4663,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="38"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -4670,7 +4679,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="38"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -4686,7 +4695,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="38"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -4702,7 +4711,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="38"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -4718,7 +4727,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="38"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -4734,7 +4743,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="38"/>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -4750,7 +4759,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="38"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -4766,7 +4775,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="38"/>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -4782,7 +4791,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="38"/>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -4798,7 +4807,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="38"/>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -4814,7 +4823,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="38"/>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -4830,7 +4839,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="38"/>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -4846,7 +4855,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="38"/>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -4862,7 +4871,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="38"/>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -4878,7 +4887,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="38"/>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -4894,7 +4903,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="38"/>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -4910,7 +4919,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="38"/>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -4926,7 +4935,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="38"/>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
@@ -4942,7 +4951,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="38"/>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -4958,7 +4967,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="38"/>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
@@ -4974,7 +4983,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="38"/>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -4990,7 +4999,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="38"/>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -5006,7 +5015,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="38"/>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -5022,7 +5031,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="38"/>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -5038,7 +5047,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="38"/>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -5054,7 +5063,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="38"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -5070,7 +5079,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="38"/>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -5086,7 +5095,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="38"/>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -5102,7 +5111,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="38"/>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -5118,7 +5127,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="38"/>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -5134,7 +5143,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="38"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -5150,7 +5159,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="38"/>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -5166,7 +5175,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="38"/>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -5182,7 +5191,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="38"/>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -5198,7 +5207,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="38"/>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -5214,7 +5223,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="38"/>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -5230,7 +5239,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="38"/>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -5246,7 +5255,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="38"/>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -5262,7 +5271,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="38"/>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -5278,7 +5287,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="38"/>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -5294,7 +5303,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="38"/>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -5310,7 +5319,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="38"/>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -5326,7 +5335,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="38"/>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -5342,7 +5351,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="38"/>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -5358,7 +5367,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="38"/>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -5374,7 +5383,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="38"/>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -5390,7 +5399,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="38"/>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -5406,7 +5415,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="38"/>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -5422,7 +5431,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="38"/>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -5438,7 +5447,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="38"/>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -5454,7 +5463,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="38"/>
       <c r="B195" s="20"/>
       <c r="C195" s="13"/>
@@ -5470,7 +5479,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="38"/>
       <c r="B196" s="20"/>
       <c r="C196" s="13"/>
@@ -5486,7 +5495,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="38"/>
       <c r="B197" s="20"/>
       <c r="C197" s="13"/>
@@ -5502,7 +5511,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="38"/>
       <c r="B198" s="20"/>
       <c r="C198" s="13"/>
@@ -5518,7 +5527,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="38"/>
       <c r="B199" s="20"/>
       <c r="C199" s="13"/>
@@ -5534,7 +5543,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="38"/>
       <c r="B200" s="20"/>
       <c r="C200" s="13"/>
@@ -5550,7 +5559,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="38"/>
       <c r="B201" s="20"/>
       <c r="C201" s="13"/>
@@ -5566,7 +5575,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="38"/>
       <c r="B202" s="20"/>
       <c r="C202" s="13"/>
@@ -5582,7 +5591,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="38"/>
       <c r="B203" s="20"/>
       <c r="C203" s="13"/>
@@ -5598,7 +5607,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="38"/>
       <c r="B204" s="20"/>
       <c r="C204" s="13"/>
@@ -5614,7 +5623,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="38"/>
       <c r="B205" s="20"/>
       <c r="C205" s="13"/>
@@ -5630,7 +5639,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="38"/>
       <c r="B206" s="20"/>
       <c r="C206" s="13"/>
@@ -5646,7 +5655,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="38"/>
       <c r="B207" s="20"/>
       <c r="C207" s="13"/>
@@ -5662,7 +5671,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="38"/>
       <c r="B208" s="20"/>
       <c r="C208" s="13"/>
@@ -5678,7 +5687,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="38"/>
       <c r="B209" s="20"/>
       <c r="C209" s="13"/>
@@ -5694,7 +5703,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="38"/>
       <c r="B210" s="20"/>
       <c r="C210" s="13"/>
@@ -5710,7 +5719,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="38"/>
       <c r="B211" s="20"/>
       <c r="C211" s="13"/>
@@ -5726,7 +5735,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="38"/>
       <c r="B212" s="20"/>
       <c r="C212" s="13"/>
@@ -5742,7 +5751,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="38"/>
       <c r="B213" s="20"/>
       <c r="C213" s="13"/>
@@ -5758,7 +5767,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="38"/>
       <c r="B214" s="20"/>
       <c r="C214" s="13"/>
@@ -5774,7 +5783,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="38"/>
       <c r="B215" s="20"/>
       <c r="C215" s="13"/>
@@ -5790,7 +5799,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="38"/>
       <c r="B216" s="20"/>
       <c r="C216" s="13"/>
@@ -5806,7 +5815,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="38"/>
       <c r="B217" s="20"/>
       <c r="C217" s="13"/>
@@ -5822,7 +5831,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="38"/>
       <c r="B218" s="20"/>
       <c r="C218" s="13"/>
@@ -5838,7 +5847,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="38"/>
       <c r="B219" s="20"/>
       <c r="C219" s="13"/>
@@ -5854,7 +5863,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="38"/>
       <c r="B220" s="20"/>
       <c r="C220" s="13"/>
@@ -5870,7 +5879,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="38"/>
       <c r="B221" s="20"/>
       <c r="C221" s="13"/>
@@ -5886,7 +5895,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="38"/>
       <c r="B222" s="20"/>
       <c r="C222" s="13"/>
@@ -5902,7 +5911,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="38"/>
       <c r="B223" s="20"/>
       <c r="C223" s="13"/>
@@ -5918,7 +5927,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="38"/>
       <c r="B224" s="20"/>
       <c r="C224" s="13"/>
@@ -5934,7 +5943,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="38"/>
       <c r="B225" s="20"/>
       <c r="C225" s="13"/>
@@ -5950,7 +5959,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="38"/>
       <c r="B226" s="20"/>
       <c r="C226" s="13"/>
@@ -5966,7 +5975,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="38"/>
       <c r="B227" s="20"/>
       <c r="C227" s="13"/>
@@ -5982,7 +5991,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="38"/>
       <c r="B228" s="20"/>
       <c r="C228" s="13"/>
@@ -5998,7 +6007,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="38"/>
       <c r="B229" s="20"/>
       <c r="C229" s="13"/>
@@ -6014,7 +6023,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="38"/>
       <c r="B230" s="20"/>
       <c r="C230" s="13"/>
@@ -6030,7 +6039,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="38"/>
       <c r="B231" s="20"/>
       <c r="C231" s="13"/>
@@ -6046,7 +6055,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="38"/>
       <c r="B232" s="20"/>
       <c r="C232" s="13"/>
@@ -6062,7 +6071,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="38"/>
       <c r="B233" s="20"/>
       <c r="C233" s="13"/>
@@ -6078,7 +6087,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="38"/>
       <c r="B234" s="20"/>
       <c r="C234" s="13"/>
@@ -6094,7 +6103,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="38"/>
       <c r="B235" s="20"/>
       <c r="C235" s="13"/>
@@ -6110,7 +6119,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="38"/>
       <c r="B236" s="20"/>
       <c r="C236" s="13"/>
@@ -6126,7 +6135,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="38"/>
       <c r="B237" s="20"/>
       <c r="C237" s="13"/>
@@ -6142,7 +6151,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="38"/>
       <c r="B238" s="20"/>
       <c r="C238" s="13"/>
@@ -6158,7 +6167,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="38"/>
       <c r="B239" s="20"/>
       <c r="C239" s="13"/>
@@ -6174,7 +6183,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="38"/>
       <c r="B240" s="20"/>
       <c r="C240" s="13"/>
@@ -6190,7 +6199,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="38"/>
       <c r="B241" s="20"/>
       <c r="C241" s="13"/>
@@ -6206,7 +6215,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="38"/>
       <c r="B242" s="20"/>
       <c r="C242" s="13"/>
@@ -6222,7 +6231,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="38"/>
       <c r="B243" s="20"/>
       <c r="C243" s="13"/>
@@ -6238,7 +6247,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="38"/>
       <c r="B244" s="20"/>
       <c r="C244" s="13"/>
@@ -6254,7 +6263,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="38"/>
       <c r="B245" s="20"/>
       <c r="C245" s="13"/>
@@ -6270,7 +6279,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="38"/>
       <c r="B246" s="20"/>
       <c r="C246" s="13"/>
@@ -6286,7 +6295,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="38"/>
       <c r="B247" s="20"/>
       <c r="C247" s="13"/>
@@ -6302,7 +6311,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="38"/>
       <c r="B248" s="20"/>
       <c r="C248" s="13"/>
@@ -6318,7 +6327,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="38"/>
       <c r="B249" s="20"/>
       <c r="C249" s="13"/>
@@ -6334,7 +6343,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="38"/>
       <c r="B250" s="20"/>
       <c r="C250" s="13"/>
@@ -6350,7 +6359,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="38"/>
       <c r="B251" s="20"/>
       <c r="C251" s="13"/>
@@ -6366,7 +6375,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="38"/>
       <c r="B252" s="20"/>
       <c r="C252" s="13"/>
@@ -6382,7 +6391,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="38"/>
       <c r="B253" s="20"/>
       <c r="C253" s="13"/>
@@ -6398,7 +6407,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="38"/>
       <c r="B254" s="20"/>
       <c r="C254" s="13"/>
@@ -6414,7 +6423,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="38"/>
       <c r="B255" s="20"/>
       <c r="C255" s="13"/>
@@ -6430,7 +6439,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="38"/>
       <c r="B256" s="20"/>
       <c r="C256" s="13"/>
@@ -6446,7 +6455,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="38"/>
       <c r="B257" s="20"/>
       <c r="C257" s="13"/>
@@ -6462,7 +6471,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="38"/>
       <c r="B258" s="20"/>
       <c r="C258" s="13"/>
@@ -6478,7 +6487,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="38"/>
       <c r="B259" s="20"/>
       <c r="C259" s="13"/>
@@ -6494,7 +6503,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="38"/>
       <c r="B260" s="20"/>
       <c r="C260" s="13"/>
@@ -6510,7 +6519,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="38"/>
       <c r="B261" s="20"/>
       <c r="C261" s="13"/>
@@ -6526,7 +6535,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="38"/>
       <c r="B262" s="20"/>
       <c r="C262" s="13"/>
@@ -6542,7 +6551,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="38"/>
       <c r="B263" s="20"/>
       <c r="C263" s="13"/>
@@ -6558,7 +6567,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="38"/>
       <c r="B264" s="20"/>
       <c r="C264" s="13"/>
@@ -6574,7 +6583,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="38"/>
       <c r="B265" s="20"/>
       <c r="C265" s="13"/>
@@ -6590,7 +6599,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="38"/>
       <c r="B266" s="20"/>
       <c r="C266" s="13"/>
@@ -6606,7 +6615,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="39"/>
       <c r="B267" s="15"/>
       <c r="C267" s="40"/>
@@ -6637,10 +6646,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6663,34 +6672,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K112"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A64" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A64" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
       <selection pane="bottomLeft" activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -6711,7 +6720,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -6729,7 +6738,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -6749,7 +6758,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -6757,7 +6766,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6770,7 +6779,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -6787,7 +6796,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6822,7 +6831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6846,7 +6855,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
         <v>44</v>
       </c>
@@ -6868,7 +6877,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="38">
         <v>43252</v>
       </c>
@@ -6890,7 +6899,7 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="38">
         <v>43282</v>
       </c>
@@ -6914,7 +6923,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="38">
         <v>43313</v>
       </c>
@@ -6938,7 +6947,7 @@
         <v>43327</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="38"/>
       <c r="B14" s="20" t="s">
         <v>49</v>
@@ -6958,7 +6967,7 @@
         <v>43328</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="38">
         <v>43344</v>
       </c>
@@ -6982,7 +6991,7 @@
         <v>43353</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="38">
         <v>43374</v>
       </c>
@@ -7006,7 +7015,7 @@
         <v>43383</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="38"/>
       <c r="B17" s="20" t="s">
         <v>50</v>
@@ -7028,7 +7037,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="44" t="s">
         <v>54</v>
       </c>
@@ -7046,7 +7055,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="38">
         <v>43556</v>
       </c>
@@ -7070,7 +7079,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="38">
         <v>43617</v>
       </c>
@@ -7092,7 +7101,7 @@
         <v>43622</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="38"/>
       <c r="B21" s="20" t="s">
         <v>49</v>
@@ -7112,7 +7121,7 @@
         <v>43626</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="38"/>
       <c r="B22" s="20" t="s">
         <v>45</v>
@@ -7134,7 +7143,7 @@
         <v>43637</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="38"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
@@ -7150,7 +7159,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="38">
         <v>43647</v>
       </c>
@@ -7174,7 +7183,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="38"/>
       <c r="B25" s="20" t="s">
         <v>45</v>
@@ -7196,7 +7205,7 @@
         <v>43673</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="38"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -7212,7 +7221,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="38">
         <v>43678</v>
       </c>
@@ -7234,7 +7243,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="38"/>
       <c r="B28" s="20" t="s">
         <v>45</v>
@@ -7256,7 +7265,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="38"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -7272,7 +7281,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="38">
         <v>43709</v>
       </c>
@@ -7296,7 +7305,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="38"/>
       <c r="B31" s="20" t="s">
         <v>48</v>
@@ -7318,7 +7327,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="38">
         <v>43739</v>
       </c>
@@ -7342,7 +7351,7 @@
         <v>43762</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="38"/>
       <c r="B33" s="20" t="s">
         <v>46</v>
@@ -7364,7 +7373,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="38"/>
       <c r="B34" s="20" t="s">
         <v>46</v>
@@ -7386,7 +7395,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="38"/>
       <c r="B35" s="20" t="s">
         <v>67</v>
@@ -7408,7 +7417,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="38"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -7424,7 +7433,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="38">
         <v>43739</v>
       </c>
@@ -7442,7 +7451,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="38">
         <v>43770</v>
       </c>
@@ -7466,7 +7475,7 @@
         <v>43791</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="38"/>
       <c r="B39" s="20" t="s">
         <v>45</v>
@@ -7488,7 +7497,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="38"/>
       <c r="B40" s="20" t="s">
         <v>69</v>
@@ -7510,7 +7519,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="38"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -7526,7 +7535,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="38">
         <v>43800</v>
       </c>
@@ -7550,7 +7559,7 @@
         <v>43809</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="38"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -7566,7 +7575,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="44" t="s">
         <v>71</v>
       </c>
@@ -7584,7 +7593,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="38">
         <v>43831</v>
       </c>
@@ -7608,7 +7617,7 @@
         <v>43848</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="38"/>
       <c r="B46" s="20" t="s">
         <v>72</v>
@@ -7628,7 +7637,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="38"/>
       <c r="B47" s="20" t="s">
         <v>72</v>
@@ -7648,7 +7657,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="38"/>
       <c r="B48" s="20" t="s">
         <v>45</v>
@@ -7670,7 +7679,7 @@
         <v>43874</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="38"/>
       <c r="B49" s="20" t="s">
         <v>46</v>
@@ -7692,7 +7701,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="38"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -7708,7 +7717,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="38">
         <v>43862</v>
       </c>
@@ -7732,7 +7741,7 @@
         <v>43890</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="38"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -7748,7 +7757,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="38">
         <v>43891</v>
       </c>
@@ -7772,7 +7781,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="38"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -7788,7 +7797,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="38">
         <v>43922</v>
       </c>
@@ -7806,7 +7815,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="38">
         <v>43952</v>
       </c>
@@ -7824,7 +7833,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="38">
         <v>43983</v>
       </c>
@@ -7846,7 +7855,7 @@
         <v>43987</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="38"/>
       <c r="B58" s="20" t="s">
         <v>45</v>
@@ -7868,7 +7877,7 @@
         <v>44002</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="38"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -7884,7 +7893,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="38">
         <v>44013</v>
       </c>
@@ -7908,7 +7917,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="38"/>
       <c r="B61" s="20" t="s">
         <v>45</v>
@@ -7930,7 +7939,7 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="38"/>
       <c r="B62" s="20" t="s">
         <v>48</v>
@@ -7952,7 +7961,7 @@
         <v>44041</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="38"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -7968,7 +7977,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="38">
         <v>44044</v>
       </c>
@@ -7992,7 +8001,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="38"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -8008,7 +8017,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="38">
         <v>44075</v>
       </c>
@@ -8032,7 +8041,7 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="38"/>
       <c r="B67" s="20" t="s">
         <v>49</v>
@@ -8052,7 +8061,7 @@
         <v>44089</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="38"/>
       <c r="B68" s="20" t="s">
         <v>48</v>
@@ -8074,7 +8083,7 @@
         <v>44085</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="38"/>
       <c r="B69" s="20" t="s">
         <v>48</v>
@@ -8096,7 +8105,7 @@
         <v>44102</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="38"/>
       <c r="B70" s="20" t="s">
         <v>45</v>
@@ -8118,7 +8127,7 @@
         <v>44102</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="38"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -8134,7 +8143,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="38">
         <v>44105</v>
       </c>
@@ -8158,7 +8167,7 @@
         <v>44112</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="38"/>
       <c r="B73" s="20" t="s">
         <v>45</v>
@@ -8178,7 +8187,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="38"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -8194,7 +8203,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="38">
         <v>44136</v>
       </c>
@@ -8212,7 +8221,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="38">
         <v>44166</v>
       </c>
@@ -8234,7 +8243,7 @@
         <v>44172</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="38"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -8250,7 +8259,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="44" t="s">
         <v>79</v>
       </c>
@@ -8268,7 +8277,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="38">
         <v>44197</v>
       </c>
@@ -8292,7 +8301,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="38">
         <v>44228</v>
       </c>
@@ -8316,7 +8325,7 @@
         <v>44251</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="38"/>
       <c r="B81" s="20" t="s">
         <v>45</v>
@@ -8338,7 +8347,7 @@
         <v>44232</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="38">
         <v>44256</v>
       </c>
@@ -8362,7 +8371,7 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="38">
         <v>44531</v>
       </c>
@@ -8384,7 +8393,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="44" t="s">
         <v>82</v>
       </c>
@@ -8402,7 +8411,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="38">
         <v>44682</v>
       </c>
@@ -8426,7 +8435,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="38">
         <v>44713</v>
       </c>
@@ -8448,7 +8457,7 @@
         <v>44718</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="38">
         <v>44743</v>
       </c>
@@ -8466,7 +8475,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="38">
         <v>44774</v>
       </c>
@@ -8488,7 +8497,7 @@
         <v>44783</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="38"/>
       <c r="B89" s="20" t="s">
         <v>48</v>
@@ -8510,7 +8519,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="38">
         <v>44805</v>
       </c>
@@ -8534,7 +8543,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="38"/>
       <c r="B91" s="20" t="s">
         <v>45</v>
@@ -8556,7 +8565,7 @@
         <v>44819</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="38"/>
       <c r="B92" s="20" t="s">
         <v>45</v>
@@ -8578,7 +8587,7 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="38">
         <v>44835</v>
       </c>
@@ -8602,7 +8611,7 @@
         <v>44846</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="38"/>
       <c r="B94" s="20" t="s">
         <v>45</v>
@@ -8624,7 +8633,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="38">
         <v>44866</v>
       </c>
@@ -8648,7 +8657,7 @@
         <v>44880</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="38"/>
       <c r="B96" s="20" t="s">
         <v>50</v>
@@ -8670,7 +8679,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="38">
         <v>44896</v>
       </c>
@@ -8694,7 +8703,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="38"/>
       <c r="B98" s="20" t="s">
         <v>45</v>
@@ -8716,7 +8725,7 @@
         <v>44904</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="44" t="s">
         <v>87</v>
       </c>
@@ -8734,7 +8743,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="38">
         <v>45170</v>
       </c>
@@ -8758,7 +8767,7 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="38"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -8774,7 +8783,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="38"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -8790,7 +8799,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="38"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -8806,7 +8815,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="38"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -8822,7 +8831,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="38"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -8838,7 +8847,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="38"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -8854,7 +8863,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="38"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -8870,7 +8879,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="38"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -8886,7 +8895,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="38"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -8902,7 +8911,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="38"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -8918,7 +8927,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="38"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -8934,7 +8943,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="39"/>
       <c r="B112" s="15"/>
       <c r="C112" s="40"/>
@@ -8952,23 +8961,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8991,28 +9000,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="47" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="47" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -9025,7 +9034,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -9054,7 +9063,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>42.707999999999998</v>
       </c>
@@ -9080,17 +9089,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="48" t="s">
         <v>28</v>
       </c>
@@ -9111,7 +9120,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="47">
         <v>1</v>
       </c>
@@ -9138,7 +9147,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="47">
         <v>2</v>
       </c>
@@ -9164,7 +9173,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="47">
         <v>3</v>
       </c>
@@ -9190,7 +9199,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="47">
         <v>4</v>
       </c>
@@ -9216,7 +9225,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="47">
         <v>5</v>
       </c>
@@ -9242,7 +9251,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="47">
         <v>6</v>
       </c>
@@ -9268,7 +9277,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="47">
         <v>7</v>
       </c>
@@ -9294,7 +9303,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="47">
         <v>8</v>
       </c>
@@ -9320,7 +9329,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="47">
         <v>9</v>
       </c>
@@ -9340,7 +9349,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="47">
         <v>10</v>
       </c>
@@ -9360,7 +9369,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="47">
         <v>11</v>
       </c>
@@ -9380,7 +9389,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="47">
         <v>12</v>
       </c>
@@ -9401,7 +9410,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="47">
         <v>13</v>
       </c>
@@ -9422,7 +9431,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="47">
         <v>14</v>
       </c>
@@ -9443,7 +9452,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="47">
         <v>15</v>
       </c>
@@ -9464,7 +9473,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="47">
         <v>16</v>
       </c>
@@ -9485,7 +9494,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="47">
         <v>17</v>
       </c>
@@ -9506,7 +9515,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="47">
         <v>18</v>
       </c>
@@ -9527,7 +9536,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="47">
         <v>19</v>
       </c>
@@ -9548,7 +9557,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="47">
         <v>20</v>
       </c>
@@ -9569,7 +9578,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="47">
         <v>21</v>
       </c>
@@ -9590,7 +9599,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="47">
         <v>22</v>
       </c>
@@ -9611,7 +9620,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="47">
         <v>23</v>
       </c>
@@ -9632,7 +9641,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="47">
         <v>24</v>
       </c>
@@ -9653,7 +9662,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="47">
         <v>25</v>
       </c>
@@ -9674,7 +9683,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="47">
         <v>26</v>
       </c>
@@ -9695,7 +9704,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="47">
         <v>27</v>
       </c>
@@ -9716,7 +9725,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="47">
         <v>28</v>
       </c>
@@ -9737,7 +9746,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="47">
         <v>29</v>
       </c>
@@ -9758,7 +9767,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="47">
         <v>30</v>
       </c>
@@ -9779,7 +9788,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="47">
         <v>31</v>
       </c>
@@ -9800,7 +9809,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="47">
         <v>32</v>
       </c>
@@ -9809,7 +9818,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="47">
         <v>33</v>
       </c>
@@ -9818,7 +9827,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="47">
         <v>34</v>
       </c>
@@ -9827,7 +9836,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="47">
         <v>35</v>
       </c>
@@ -9836,7 +9845,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="47">
         <v>36</v>
       </c>
@@ -9845,7 +9854,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="47">
         <v>37</v>
       </c>
@@ -9854,7 +9863,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="47">
         <v>38</v>
       </c>
@@ -9863,7 +9872,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="47">
         <v>39</v>
       </c>
@@ -9872,7 +9881,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="47">
         <v>40</v>
       </c>
@@ -9881,7 +9890,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="47">
         <v>41</v>
       </c>
@@ -9890,7 +9899,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="47">
         <v>42</v>
       </c>
@@ -9899,7 +9908,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="47">
         <v>43</v>
       </c>
@@ -9908,7 +9917,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="47">
         <v>44</v>
       </c>
@@ -9917,7 +9926,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="47">
         <v>45</v>
       </c>
@@ -9926,7 +9935,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="47">
         <v>46</v>
       </c>
@@ -9935,7 +9944,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="47">
         <v>47</v>
       </c>
@@ -9944,7 +9953,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="47">
         <v>48</v>
       </c>
@@ -9953,7 +9962,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="47">
         <v>49</v>
       </c>
@@ -9962,7 +9971,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="47">
         <v>50</v>
       </c>
@@ -9971,7 +9980,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="47">
         <v>51</v>
       </c>
@@ -9980,7 +9989,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="47">
         <v>52</v>
       </c>
@@ -9989,7 +9998,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="47">
         <v>53</v>
       </c>
@@ -9998,7 +10007,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="47">
         <v>54</v>
       </c>
@@ -10007,7 +10016,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="47">
         <v>55</v>
       </c>
@@ -10016,7 +10025,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="47">
         <v>56</v>
       </c>
@@ -10025,7 +10034,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="47">
         <v>57</v>
       </c>
@@ -10034,7 +10043,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="47">
         <v>58</v>
       </c>
@@ -10043,7 +10052,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="47">
         <v>59</v>
       </c>
@@ -10052,7 +10061,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="47">
         <v>60</v>
       </c>
@@ -10061,7 +10070,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/CASUAL/LA TICC/VILLANUEVA, RICHELLE ALEGRE.xlsx
+++ b/CASUAL/LA TICC/VILLANUEVA, RICHELLE ALEGRE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA TICC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA TICC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9945A238-726A-4AAD-8B8F-0DA0E92E1597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="105">
   <si>
     <t>PERIOD</t>
   </si>
@@ -357,7 +356,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1270,7 +1269,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1287,25 +1286,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K267" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K267" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1317,25 +1316,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A8:K112" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K112" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1642,34 +1641,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K267"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A100" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4245" topLeftCell="A96" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="K104" sqref="K104"/>
+      <selection pane="bottomLeft" activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1690,7 +1689,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1708,7 +1707,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1730,7 +1729,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1738,7 +1737,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1751,7 +1750,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -1768,7 +1767,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1803,7 +1802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1822,12 +1821,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
         <v>44</v>
       </c>
@@ -1849,7 +1848,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="38">
         <v>43101</v>
       </c>
@@ -1869,7 +1868,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="38">
         <v>43132</v>
       </c>
@@ -1889,7 +1888,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="38">
         <v>43160</v>
       </c>
@@ -1915,7 +1914,7 @@
         <v>43186</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
       <c r="B14" s="20" t="s">
         <v>45</v>
@@ -1937,7 +1936,7 @@
         <v>43161</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="20" t="s">
         <v>46</v>
@@ -1959,7 +1958,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
       <c r="B16" s="20" t="s">
         <v>45</v>
@@ -1979,7 +1978,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="38">
         <v>43191</v>
       </c>
@@ -2005,7 +2004,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
       <c r="B18" s="20" t="s">
         <v>45</v>
@@ -2027,7 +2026,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="38">
         <v>43221</v>
       </c>
@@ -2053,7 +2052,7 @@
         <v>43228</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="38">
         <v>43252</v>
       </c>
@@ -2079,7 +2078,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="38"/>
       <c r="B21" s="20" t="s">
         <v>45</v>
@@ -2104,7 +2103,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="38"/>
       <c r="B22" s="20" t="s">
         <v>45</v>
@@ -2129,7 +2128,7 @@
         <v>43249</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="38"/>
       <c r="B23" s="20" t="s">
         <v>45</v>
@@ -2154,7 +2153,7 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="38">
         <v>43282</v>
       </c>
@@ -2180,7 +2179,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="38"/>
       <c r="B25" s="20" t="s">
         <v>45</v>
@@ -2205,7 +2204,7 @@
         <v>43297</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="38">
         <v>43313</v>
       </c>
@@ -2231,7 +2230,7 @@
         <v>43322</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="38">
         <v>43344</v>
       </c>
@@ -2257,7 +2256,7 @@
         <v>43367</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="38">
         <v>43374</v>
       </c>
@@ -2279,7 +2278,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="38">
         <v>43405</v>
       </c>
@@ -2305,7 +2304,7 @@
         <v>43422</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="38">
         <v>43435</v>
       </c>
@@ -2331,7 +2330,7 @@
         <v>43448</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="s">
         <v>54</v>
       </c>
@@ -2349,7 +2348,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="38">
         <v>43466</v>
       </c>
@@ -2375,7 +2374,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="38">
         <v>43497</v>
       </c>
@@ -2401,7 +2400,7 @@
         <v>43505</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="38">
         <v>43525</v>
       </c>
@@ -2427,7 +2426,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="38"/>
       <c r="B35" s="20" t="s">
         <v>45</v>
@@ -2449,7 +2448,7 @@
         <v>43107</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="38"/>
       <c r="B36" s="20" t="s">
         <v>46</v>
@@ -2471,7 +2470,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="38">
         <v>43556</v>
       </c>
@@ -2497,7 +2496,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="38"/>
       <c r="B38" s="20" t="s">
         <v>46</v>
@@ -2519,7 +2518,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="38">
         <v>43586</v>
       </c>
@@ -2545,7 +2544,7 @@
         <v>43605</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="38">
         <v>43617</v>
       </c>
@@ -2571,7 +2570,7 @@
         <v>43640</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="38">
         <v>43647</v>
       </c>
@@ -2591,7 +2590,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="38">
         <v>43678</v>
       </c>
@@ -2611,7 +2610,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="38">
         <v>43709</v>
       </c>
@@ -2631,7 +2630,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="38">
         <v>43739</v>
       </c>
@@ -2655,7 +2654,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="38">
         <v>43770</v>
       </c>
@@ -2675,7 +2674,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="38">
         <v>43800</v>
       </c>
@@ -2695,7 +2694,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="44" t="s">
         <v>71</v>
       </c>
@@ -2713,7 +2712,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="38">
         <v>43831</v>
       </c>
@@ -2733,7 +2732,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="38">
         <v>43862</v>
       </c>
@@ -2753,7 +2752,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="38">
         <v>43891</v>
       </c>
@@ -2773,7 +2772,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="38">
         <v>43922</v>
       </c>
@@ -2793,7 +2792,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="15"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="38">
         <v>43952</v>
       </c>
@@ -2813,7 +2812,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="38">
         <v>43983</v>
       </c>
@@ -2833,7 +2832,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="38">
         <v>44013</v>
       </c>
@@ -2853,7 +2852,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="38">
         <v>44044</v>
       </c>
@@ -2873,7 +2872,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="38">
         <v>44075</v>
       </c>
@@ -2893,7 +2892,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="38">
         <v>44105</v>
       </c>
@@ -2913,7 +2912,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="38">
         <v>44136</v>
       </c>
@@ -2933,7 +2932,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="38">
         <v>44166</v>
       </c>
@@ -2957,7 +2956,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="44" t="s">
         <v>79</v>
       </c>
@@ -2975,7 +2974,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="38">
         <v>44197</v>
       </c>
@@ -2995,7 +2994,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="38">
         <v>44228</v>
       </c>
@@ -3015,7 +3014,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="38">
         <v>44256</v>
       </c>
@@ -3035,7 +3034,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="38">
         <v>44287</v>
       </c>
@@ -3055,7 +3054,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="38">
         <v>44317</v>
       </c>
@@ -3075,7 +3074,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="38">
         <v>44348</v>
       </c>
@@ -3095,7 +3094,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="38">
         <v>44378</v>
       </c>
@@ -3115,7 +3114,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="38">
         <v>44409</v>
       </c>
@@ -3135,7 +3134,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="38">
         <v>44440</v>
       </c>
@@ -3155,7 +3154,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="38">
         <v>44470</v>
       </c>
@@ -3175,7 +3174,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="38">
         <v>44501</v>
       </c>
@@ -3195,7 +3194,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="38">
         <v>44531</v>
       </c>
@@ -3219,7 +3218,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="44" t="s">
         <v>82</v>
       </c>
@@ -3237,7 +3236,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="38">
         <v>44562</v>
       </c>
@@ -3257,7 +3256,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="38">
         <v>44593</v>
       </c>
@@ -3277,7 +3276,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="38">
         <v>44621</v>
       </c>
@@ -3297,7 +3296,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="38">
         <v>44652</v>
       </c>
@@ -3321,7 +3320,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="38">
         <v>44682</v>
       </c>
@@ -3345,7 +3344,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="38">
         <v>44713</v>
       </c>
@@ -3369,7 +3368,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="38">
         <v>44743</v>
       </c>
@@ -3393,7 +3392,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="38">
         <v>44774</v>
       </c>
@@ -3417,7 +3416,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="38">
         <v>44805</v>
       </c>
@@ -3441,7 +3440,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="38">
         <v>44835</v>
       </c>
@@ -3465,7 +3464,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="38">
         <v>44866</v>
       </c>
@@ -3489,7 +3488,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="38">
         <v>44896</v>
       </c>
@@ -3513,7 +3512,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="38"/>
       <c r="B86" s="20" t="s">
         <v>96</v>
@@ -3533,7 +3532,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="44" t="s">
         <v>87</v>
       </c>
@@ -3551,7 +3550,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="38">
         <v>44927</v>
       </c>
@@ -3577,7 +3576,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="38"/>
       <c r="B89" s="20" t="s">
         <v>46</v>
@@ -3599,7 +3598,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="38">
         <v>44958</v>
       </c>
@@ -3625,7 +3624,7 @@
         <v>44970</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="38">
         <v>44986</v>
       </c>
@@ -3651,7 +3650,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="38">
         <v>45017</v>
       </c>
@@ -3671,7 +3670,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="38">
         <v>45047</v>
       </c>
@@ -3691,7 +3690,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="38">
         <v>45078</v>
       </c>
@@ -3715,7 +3714,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="38">
         <v>45108</v>
       </c>
@@ -3735,7 +3734,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="38">
         <v>45139</v>
       </c>
@@ -3759,7 +3758,7 @@
         <v>45154</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="38">
         <v>45170</v>
       </c>
@@ -3785,7 +3784,7 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="38">
         <v>45200</v>
       </c>
@@ -3811,7 +3810,7 @@
         <v>45205</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="38"/>
       <c r="B99" s="20" t="s">
         <v>62</v>
@@ -3833,7 +3832,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="38">
         <v>45231</v>
       </c>
@@ -3859,7 +3858,7 @@
         <v>45240</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="38">
         <v>45261</v>
       </c>
@@ -3883,7 +3882,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="44" t="s">
         <v>94</v>
       </c>
@@ -3901,7 +3900,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="38">
         <v>45292</v>
       </c>
@@ -3927,11 +3926,13 @@
         <v>45314</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="38">
         <v>45323</v>
       </c>
-      <c r="B104" s="20"/>
+      <c r="B104" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C104" s="13"/>
       <c r="D104" s="37"/>
       <c r="E104" s="9"/>
@@ -3940,12 +3941,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H104" s="37"/>
+      <c r="H104" s="37">
+        <v>1</v>
+      </c>
       <c r="I104" s="9"/>
       <c r="J104" s="11"/>
-      <c r="K104" s="20"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K104" s="45">
+        <v>45322</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="38">
         <v>45352</v>
       </c>
@@ -3963,7 +3968,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="38">
         <v>45383</v>
       </c>
@@ -3981,7 +3986,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="38">
         <v>45413</v>
       </c>
@@ -3999,7 +4004,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="38">
         <v>45444</v>
       </c>
@@ -4017,7 +4022,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="38">
         <v>45474</v>
       </c>
@@ -4035,7 +4040,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="38">
         <v>45505</v>
       </c>
@@ -4053,7 +4058,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="38">
         <v>45536</v>
       </c>
@@ -4071,7 +4076,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="38">
         <v>45566</v>
       </c>
@@ -4089,7 +4094,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="38">
         <v>45597</v>
       </c>
@@ -4107,7 +4112,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="38">
         <v>45627</v>
       </c>
@@ -4125,7 +4130,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="38">
         <v>45658</v>
       </c>
@@ -4143,7 +4148,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="38">
         <v>45689</v>
       </c>
@@ -4161,7 +4166,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="38">
         <v>45717</v>
       </c>
@@ -4179,7 +4184,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="38">
         <v>45748</v>
       </c>
@@ -4197,7 +4202,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="38">
         <v>45778</v>
       </c>
@@ -4215,7 +4220,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="38">
         <v>45809</v>
       </c>
@@ -4233,7 +4238,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="38">
         <v>45839</v>
       </c>
@@ -4251,7 +4256,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="38">
         <v>45870</v>
       </c>
@@ -4269,7 +4274,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="38">
         <v>45901</v>
       </c>
@@ -4287,7 +4292,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="38">
         <v>45931</v>
       </c>
@@ -4305,7 +4310,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="38">
         <v>45962</v>
       </c>
@@ -4323,7 +4328,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="38">
         <v>45992</v>
       </c>
@@ -4341,7 +4346,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="38">
         <v>46023</v>
       </c>
@@ -4359,7 +4364,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="38">
         <v>46054</v>
       </c>
@@ -4377,7 +4382,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="38">
         <v>46082</v>
       </c>
@@ -4395,7 +4400,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="38">
         <v>46113</v>
       </c>
@@ -4413,7 +4418,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="38">
         <v>46143</v>
       </c>
@@ -4431,7 +4436,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="38">
         <v>46174</v>
       </c>
@@ -4449,7 +4454,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="38">
         <v>46204</v>
       </c>
@@ -4467,7 +4472,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="38">
         <v>46235</v>
       </c>
@@ -4485,7 +4490,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="38">
         <v>46266</v>
       </c>
@@ -4503,7 +4508,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="38">
         <v>46296</v>
       </c>
@@ -4521,7 +4526,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="38">
         <v>46327</v>
       </c>
@@ -4539,7 +4544,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="38">
         <v>46357</v>
       </c>
@@ -4557,7 +4562,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="38">
         <v>46388</v>
       </c>
@@ -4575,7 +4580,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="38">
         <v>46419</v>
       </c>
@@ -4593,7 +4598,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="38">
         <v>46447</v>
       </c>
@@ -4611,7 +4616,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="38">
         <v>46478</v>
       </c>
@@ -4629,7 +4634,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="38">
         <v>46508</v>
       </c>
@@ -4647,7 +4652,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="38"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -4663,7 +4668,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="38"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -4679,7 +4684,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="38"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -4695,7 +4700,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="38"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -4711,7 +4716,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="38"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -4727,7 +4732,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="38"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -4743,7 +4748,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="38"/>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -4759,7 +4764,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="38"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -4775,7 +4780,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="38"/>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -4791,7 +4796,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="38"/>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -4807,7 +4812,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="38"/>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -4823,7 +4828,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="38"/>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -4839,7 +4844,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="38"/>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -4855,7 +4860,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="38"/>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -4871,7 +4876,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="38"/>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -4887,7 +4892,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="38"/>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -4903,7 +4908,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="38"/>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -4919,7 +4924,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="38"/>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -4935,7 +4940,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="38"/>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
@@ -4951,7 +4956,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="38"/>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -4967,7 +4972,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="38"/>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
@@ -4983,7 +4988,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="38"/>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -4999,7 +5004,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="38"/>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -5015,7 +5020,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="38"/>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -5031,7 +5036,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="38"/>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -5047,7 +5052,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="38"/>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -5063,7 +5068,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="38"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -5079,7 +5084,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="38"/>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -5095,7 +5100,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="38"/>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -5111,7 +5116,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="38"/>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -5127,7 +5132,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="38"/>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -5143,7 +5148,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="38"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -5159,7 +5164,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="38"/>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -5175,7 +5180,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="38"/>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -5191,7 +5196,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="38"/>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -5207,7 +5212,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="38"/>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -5223,7 +5228,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="38"/>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -5239,7 +5244,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="38"/>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -5255,7 +5260,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="38"/>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -5271,7 +5276,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="38"/>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -5287,7 +5292,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="38"/>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -5303,7 +5308,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="38"/>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -5319,7 +5324,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="38"/>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -5335,7 +5340,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="38"/>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -5351,7 +5356,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="38"/>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -5367,7 +5372,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="38"/>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -5383,7 +5388,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="38"/>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -5399,7 +5404,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="38"/>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -5415,7 +5420,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="38"/>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -5431,7 +5436,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="38"/>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -5447,7 +5452,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="38"/>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -5463,7 +5468,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="38"/>
       <c r="B195" s="20"/>
       <c r="C195" s="13"/>
@@ -5479,7 +5484,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="38"/>
       <c r="B196" s="20"/>
       <c r="C196" s="13"/>
@@ -5495,7 +5500,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="38"/>
       <c r="B197" s="20"/>
       <c r="C197" s="13"/>
@@ -5511,7 +5516,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="38"/>
       <c r="B198" s="20"/>
       <c r="C198" s="13"/>
@@ -5527,7 +5532,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="38"/>
       <c r="B199" s="20"/>
       <c r="C199" s="13"/>
@@ -5543,7 +5548,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="38"/>
       <c r="B200" s="20"/>
       <c r="C200" s="13"/>
@@ -5559,7 +5564,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="38"/>
       <c r="B201" s="20"/>
       <c r="C201" s="13"/>
@@ -5575,7 +5580,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="38"/>
       <c r="B202" s="20"/>
       <c r="C202" s="13"/>
@@ -5591,7 +5596,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="38"/>
       <c r="B203" s="20"/>
       <c r="C203" s="13"/>
@@ -5607,7 +5612,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="38"/>
       <c r="B204" s="20"/>
       <c r="C204" s="13"/>
@@ -5623,7 +5628,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="38"/>
       <c r="B205" s="20"/>
       <c r="C205" s="13"/>
@@ -5639,7 +5644,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="38"/>
       <c r="B206" s="20"/>
       <c r="C206" s="13"/>
@@ -5655,7 +5660,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="38"/>
       <c r="B207" s="20"/>
       <c r="C207" s="13"/>
@@ -5671,7 +5676,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="38"/>
       <c r="B208" s="20"/>
       <c r="C208" s="13"/>
@@ -5687,7 +5692,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="38"/>
       <c r="B209" s="20"/>
       <c r="C209" s="13"/>
@@ -5703,7 +5708,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="38"/>
       <c r="B210" s="20"/>
       <c r="C210" s="13"/>
@@ -5719,7 +5724,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="38"/>
       <c r="B211" s="20"/>
       <c r="C211" s="13"/>
@@ -5735,7 +5740,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="38"/>
       <c r="B212" s="20"/>
       <c r="C212" s="13"/>
@@ -5751,7 +5756,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="38"/>
       <c r="B213" s="20"/>
       <c r="C213" s="13"/>
@@ -5767,7 +5772,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="38"/>
       <c r="B214" s="20"/>
       <c r="C214" s="13"/>
@@ -5783,7 +5788,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="38"/>
       <c r="B215" s="20"/>
       <c r="C215" s="13"/>
@@ -5799,7 +5804,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="38"/>
       <c r="B216" s="20"/>
       <c r="C216" s="13"/>
@@ -5815,7 +5820,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="38"/>
       <c r="B217" s="20"/>
       <c r="C217" s="13"/>
@@ -5831,7 +5836,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="38"/>
       <c r="B218" s="20"/>
       <c r="C218" s="13"/>
@@ -5847,7 +5852,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="38"/>
       <c r="B219" s="20"/>
       <c r="C219" s="13"/>
@@ -5863,7 +5868,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="38"/>
       <c r="B220" s="20"/>
       <c r="C220" s="13"/>
@@ -5879,7 +5884,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="38"/>
       <c r="B221" s="20"/>
       <c r="C221" s="13"/>
@@ -5895,7 +5900,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="38"/>
       <c r="B222" s="20"/>
       <c r="C222" s="13"/>
@@ -5911,7 +5916,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="38"/>
       <c r="B223" s="20"/>
       <c r="C223" s="13"/>
@@ -5927,7 +5932,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="38"/>
       <c r="B224" s="20"/>
       <c r="C224" s="13"/>
@@ -5943,7 +5948,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="38"/>
       <c r="B225" s="20"/>
       <c r="C225" s="13"/>
@@ -5959,7 +5964,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="38"/>
       <c r="B226" s="20"/>
       <c r="C226" s="13"/>
@@ -5975,7 +5980,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="38"/>
       <c r="B227" s="20"/>
       <c r="C227" s="13"/>
@@ -5991,7 +5996,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="38"/>
       <c r="B228" s="20"/>
       <c r="C228" s="13"/>
@@ -6007,7 +6012,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="38"/>
       <c r="B229" s="20"/>
       <c r="C229" s="13"/>
@@ -6023,7 +6028,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="38"/>
       <c r="B230" s="20"/>
       <c r="C230" s="13"/>
@@ -6039,7 +6044,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="38"/>
       <c r="B231" s="20"/>
       <c r="C231" s="13"/>
@@ -6055,7 +6060,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="38"/>
       <c r="B232" s="20"/>
       <c r="C232" s="13"/>
@@ -6071,7 +6076,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="38"/>
       <c r="B233" s="20"/>
       <c r="C233" s="13"/>
@@ -6087,7 +6092,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="38"/>
       <c r="B234" s="20"/>
       <c r="C234" s="13"/>
@@ -6103,7 +6108,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="38"/>
       <c r="B235" s="20"/>
       <c r="C235" s="13"/>
@@ -6119,7 +6124,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="38"/>
       <c r="B236" s="20"/>
       <c r="C236" s="13"/>
@@ -6135,7 +6140,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="38"/>
       <c r="B237" s="20"/>
       <c r="C237" s="13"/>
@@ -6151,7 +6156,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="38"/>
       <c r="B238" s="20"/>
       <c r="C238" s="13"/>
@@ -6167,7 +6172,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="38"/>
       <c r="B239" s="20"/>
       <c r="C239" s="13"/>
@@ -6183,7 +6188,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="38"/>
       <c r="B240" s="20"/>
       <c r="C240" s="13"/>
@@ -6199,7 +6204,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="38"/>
       <c r="B241" s="20"/>
       <c r="C241" s="13"/>
@@ -6215,7 +6220,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="38"/>
       <c r="B242" s="20"/>
       <c r="C242" s="13"/>
@@ -6231,7 +6236,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="38"/>
       <c r="B243" s="20"/>
       <c r="C243" s="13"/>
@@ -6247,7 +6252,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="38"/>
       <c r="B244" s="20"/>
       <c r="C244" s="13"/>
@@ -6263,7 +6268,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="38"/>
       <c r="B245" s="20"/>
       <c r="C245" s="13"/>
@@ -6279,7 +6284,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="38"/>
       <c r="B246" s="20"/>
       <c r="C246" s="13"/>
@@ -6295,7 +6300,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="38"/>
       <c r="B247" s="20"/>
       <c r="C247" s="13"/>
@@ -6311,7 +6316,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="38"/>
       <c r="B248" s="20"/>
       <c r="C248" s="13"/>
@@ -6327,7 +6332,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="38"/>
       <c r="B249" s="20"/>
       <c r="C249" s="13"/>
@@ -6343,7 +6348,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="38"/>
       <c r="B250" s="20"/>
       <c r="C250" s="13"/>
@@ -6359,7 +6364,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="38"/>
       <c r="B251" s="20"/>
       <c r="C251" s="13"/>
@@ -6375,7 +6380,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="38"/>
       <c r="B252" s="20"/>
       <c r="C252" s="13"/>
@@ -6391,7 +6396,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="38"/>
       <c r="B253" s="20"/>
       <c r="C253" s="13"/>
@@ -6407,7 +6412,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="38"/>
       <c r="B254" s="20"/>
       <c r="C254" s="13"/>
@@ -6423,7 +6428,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="38"/>
       <c r="B255" s="20"/>
       <c r="C255" s="13"/>
@@ -6439,7 +6444,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="38"/>
       <c r="B256" s="20"/>
       <c r="C256" s="13"/>
@@ -6455,7 +6460,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="38"/>
       <c r="B257" s="20"/>
       <c r="C257" s="13"/>
@@ -6471,7 +6476,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="38"/>
       <c r="B258" s="20"/>
       <c r="C258" s="13"/>
@@ -6487,7 +6492,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="38"/>
       <c r="B259" s="20"/>
       <c r="C259" s="13"/>
@@ -6503,7 +6508,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="38"/>
       <c r="B260" s="20"/>
       <c r="C260" s="13"/>
@@ -6519,7 +6524,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="38"/>
       <c r="B261" s="20"/>
       <c r="C261" s="13"/>
@@ -6535,7 +6540,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="38"/>
       <c r="B262" s="20"/>
       <c r="C262" s="13"/>
@@ -6551,7 +6556,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="38"/>
       <c r="B263" s="20"/>
       <c r="C263" s="13"/>
@@ -6567,7 +6572,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="38"/>
       <c r="B264" s="20"/>
       <c r="C264" s="13"/>
@@ -6583,7 +6588,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="38"/>
       <c r="B265" s="20"/>
       <c r="C265" s="13"/>
@@ -6599,7 +6604,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="38"/>
       <c r="B266" s="20"/>
       <c r="C266" s="13"/>
@@ -6615,7 +6620,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="39"/>
       <c r="B267" s="15"/>
       <c r="C267" s="40"/>
@@ -6646,10 +6651,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6672,34 +6677,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K112"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A64" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A64" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
       <selection pane="bottomLeft" activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -6720,7 +6725,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -6738,7 +6743,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -6758,7 +6763,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -6766,7 +6771,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6779,7 +6784,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -6796,7 +6801,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6831,7 +6836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6855,7 +6860,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
         <v>44</v>
       </c>
@@ -6877,7 +6882,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="38">
         <v>43252</v>
       </c>
@@ -6899,7 +6904,7 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="38">
         <v>43282</v>
       </c>
@@ -6923,7 +6928,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="38">
         <v>43313</v>
       </c>
@@ -6947,7 +6952,7 @@
         <v>43327</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
       <c r="B14" s="20" t="s">
         <v>49</v>
@@ -6967,7 +6972,7 @@
         <v>43328</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="38">
         <v>43344</v>
       </c>
@@ -6991,7 +6996,7 @@
         <v>43353</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="38">
         <v>43374</v>
       </c>
@@ -7015,7 +7020,7 @@
         <v>43383</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="38"/>
       <c r="B17" s="20" t="s">
         <v>50</v>
@@ -7037,7 +7042,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
         <v>54</v>
       </c>
@@ -7055,7 +7060,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="38">
         <v>43556</v>
       </c>
@@ -7079,7 +7084,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="38">
         <v>43617</v>
       </c>
@@ -7101,7 +7106,7 @@
         <v>43622</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="38"/>
       <c r="B21" s="20" t="s">
         <v>49</v>
@@ -7121,7 +7126,7 @@
         <v>43626</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="38"/>
       <c r="B22" s="20" t="s">
         <v>45</v>
@@ -7143,7 +7148,7 @@
         <v>43637</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="38"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
@@ -7159,7 +7164,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="38">
         <v>43647</v>
       </c>
@@ -7183,7 +7188,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="38"/>
       <c r="B25" s="20" t="s">
         <v>45</v>
@@ -7205,7 +7210,7 @@
         <v>43673</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="38"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -7221,7 +7226,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="38">
         <v>43678</v>
       </c>
@@ -7243,7 +7248,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="38"/>
       <c r="B28" s="20" t="s">
         <v>45</v>
@@ -7265,7 +7270,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="38"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -7281,7 +7286,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="38">
         <v>43709</v>
       </c>
@@ -7305,7 +7310,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="38"/>
       <c r="B31" s="20" t="s">
         <v>48</v>
@@ -7327,7 +7332,7 @@
         <v>43732</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="38">
         <v>43739</v>
       </c>
@@ -7351,7 +7356,7 @@
         <v>43762</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="38"/>
       <c r="B33" s="20" t="s">
         <v>46</v>
@@ -7373,7 +7378,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="38"/>
       <c r="B34" s="20" t="s">
         <v>46</v>
@@ -7395,7 +7400,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="38"/>
       <c r="B35" s="20" t="s">
         <v>67</v>
@@ -7417,7 +7422,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="38"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -7433,7 +7438,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="38">
         <v>43739</v>
       </c>
@@ -7451,7 +7456,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="38">
         <v>43770</v>
       </c>
@@ -7475,7 +7480,7 @@
         <v>43791</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="38"/>
       <c r="B39" s="20" t="s">
         <v>45</v>
@@ -7497,7 +7502,7 @@
         <v>43784</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="38"/>
       <c r="B40" s="20" t="s">
         <v>69</v>
@@ -7519,7 +7524,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="38"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -7535,7 +7540,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="38">
         <v>43800</v>
       </c>
@@ -7559,7 +7564,7 @@
         <v>43809</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="38"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -7575,7 +7580,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="s">
         <v>71</v>
       </c>
@@ -7593,7 +7598,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="38">
         <v>43831</v>
       </c>
@@ -7617,7 +7622,7 @@
         <v>43848</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="38"/>
       <c r="B46" s="20" t="s">
         <v>72</v>
@@ -7637,7 +7642,7 @@
         <v>43850</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="38"/>
       <c r="B47" s="20" t="s">
         <v>72</v>
@@ -7657,7 +7662,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
       <c r="B48" s="20" t="s">
         <v>45</v>
@@ -7679,7 +7684,7 @@
         <v>43874</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="38"/>
       <c r="B49" s="20" t="s">
         <v>46</v>
@@ -7701,7 +7706,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="38"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -7717,7 +7722,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="38">
         <v>43862</v>
       </c>
@@ -7741,7 +7746,7 @@
         <v>43890</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="38"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -7757,7 +7762,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="38">
         <v>43891</v>
       </c>
@@ -7781,7 +7786,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="38"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -7797,7 +7802,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="38">
         <v>43922</v>
       </c>
@@ -7815,7 +7820,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="38">
         <v>43952</v>
       </c>
@@ -7833,7 +7838,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="38">
         <v>43983</v>
       </c>
@@ -7855,7 +7860,7 @@
         <v>43987</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="38"/>
       <c r="B58" s="20" t="s">
         <v>45</v>
@@ -7877,7 +7882,7 @@
         <v>44002</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="38"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -7893,7 +7898,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="38">
         <v>44013</v>
       </c>
@@ -7917,7 +7922,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="38"/>
       <c r="B61" s="20" t="s">
         <v>45</v>
@@ -7939,7 +7944,7 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="38"/>
       <c r="B62" s="20" t="s">
         <v>48</v>
@@ -7961,7 +7966,7 @@
         <v>44041</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="38"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -7977,7 +7982,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="38">
         <v>44044</v>
       </c>
@@ -8001,7 +8006,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="38"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -8017,7 +8022,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="38">
         <v>44075</v>
       </c>
@@ -8041,7 +8046,7 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="38"/>
       <c r="B67" s="20" t="s">
         <v>49</v>
@@ -8061,7 +8066,7 @@
         <v>44089</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="38"/>
       <c r="B68" s="20" t="s">
         <v>48</v>
@@ -8083,7 +8088,7 @@
         <v>44085</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="38"/>
       <c r="B69" s="20" t="s">
         <v>48</v>
@@ -8105,7 +8110,7 @@
         <v>44102</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="38"/>
       <c r="B70" s="20" t="s">
         <v>45</v>
@@ -8127,7 +8132,7 @@
         <v>44102</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="38"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -8143,7 +8148,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="38">
         <v>44105</v>
       </c>
@@ -8167,7 +8172,7 @@
         <v>44112</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="38"/>
       <c r="B73" s="20" t="s">
         <v>45</v>
@@ -8187,7 +8192,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="38"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -8203,7 +8208,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="38">
         <v>44136</v>
       </c>
@@ -8221,7 +8226,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="38">
         <v>44166</v>
       </c>
@@ -8243,7 +8248,7 @@
         <v>44172</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="38"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -8259,7 +8264,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="44" t="s">
         <v>79</v>
       </c>
@@ -8277,7 +8282,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="38">
         <v>44197</v>
       </c>
@@ -8301,7 +8306,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="38">
         <v>44228</v>
       </c>
@@ -8325,7 +8330,7 @@
         <v>44251</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="38"/>
       <c r="B81" s="20" t="s">
         <v>45</v>
@@ -8347,7 +8352,7 @@
         <v>44232</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="38">
         <v>44256</v>
       </c>
@@ -8371,7 +8376,7 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="38">
         <v>44531</v>
       </c>
@@ -8393,7 +8398,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="44" t="s">
         <v>82</v>
       </c>
@@ -8411,7 +8416,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="38">
         <v>44682</v>
       </c>
@@ -8435,7 +8440,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="38">
         <v>44713</v>
       </c>
@@ -8457,7 +8462,7 @@
         <v>44718</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="38">
         <v>44743</v>
       </c>
@@ -8475,7 +8480,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="38">
         <v>44774</v>
       </c>
@@ -8497,7 +8502,7 @@
         <v>44783</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="38"/>
       <c r="B89" s="20" t="s">
         <v>48</v>
@@ -8519,7 +8524,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="38">
         <v>44805</v>
       </c>
@@ -8543,7 +8548,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="38"/>
       <c r="B91" s="20" t="s">
         <v>45</v>
@@ -8565,7 +8570,7 @@
         <v>44819</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="38"/>
       <c r="B92" s="20" t="s">
         <v>45</v>
@@ -8587,7 +8592,7 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="38">
         <v>44835</v>
       </c>
@@ -8611,7 +8616,7 @@
         <v>44846</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="38"/>
       <c r="B94" s="20" t="s">
         <v>45</v>
@@ -8633,7 +8638,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="38">
         <v>44866</v>
       </c>
@@ -8657,7 +8662,7 @@
         <v>44880</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="38"/>
       <c r="B96" s="20" t="s">
         <v>50</v>
@@ -8679,7 +8684,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="38">
         <v>44896</v>
       </c>
@@ -8703,7 +8708,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="38"/>
       <c r="B98" s="20" t="s">
         <v>45</v>
@@ -8725,7 +8730,7 @@
         <v>44904</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="44" t="s">
         <v>87</v>
       </c>
@@ -8743,7 +8748,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="38">
         <v>45170</v>
       </c>
@@ -8767,7 +8772,7 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="38"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -8783,7 +8788,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="38"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -8799,7 +8804,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="38"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -8815,7 +8820,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="38"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -8831,7 +8836,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="38"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -8847,7 +8852,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="38"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -8863,7 +8868,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="38"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -8879,7 +8884,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="38"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -8895,7 +8900,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="38"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -8911,7 +8916,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="38"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -8927,7 +8932,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="38"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -8943,7 +8948,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="39"/>
       <c r="B112" s="15"/>
       <c r="C112" s="40"/>
@@ -8961,23 +8966,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9000,28 +9005,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="47" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="47" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -9034,7 +9039,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -9063,7 +9068,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>42.707999999999998</v>
       </c>
@@ -9089,17 +9094,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="48" t="s">
         <v>28</v>
       </c>
@@ -9120,7 +9125,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="47">
         <v>1</v>
       </c>
@@ -9147,7 +9152,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="47">
         <v>2</v>
       </c>
@@ -9173,7 +9178,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="47">
         <v>3</v>
       </c>
@@ -9199,7 +9204,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="47">
         <v>4</v>
       </c>
@@ -9225,7 +9230,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="47">
         <v>5</v>
       </c>
@@ -9251,7 +9256,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="47">
         <v>6</v>
       </c>
@@ -9277,7 +9282,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="47">
         <v>7</v>
       </c>
@@ -9303,7 +9308,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="47">
         <v>8</v>
       </c>
@@ -9329,7 +9334,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="47">
         <v>9</v>
       </c>
@@ -9349,7 +9354,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="47">
         <v>10</v>
       </c>
@@ -9369,7 +9374,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="47">
         <v>11</v>
       </c>
@@ -9389,7 +9394,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="47">
         <v>12</v>
       </c>
@@ -9410,7 +9415,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="47">
         <v>13</v>
       </c>
@@ -9431,7 +9436,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="47">
         <v>14</v>
       </c>
@@ -9452,7 +9457,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="47">
         <v>15</v>
       </c>
@@ -9473,7 +9478,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="47">
         <v>16</v>
       </c>
@@ -9494,7 +9499,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="47">
         <v>17</v>
       </c>
@@ -9515,7 +9520,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="47">
         <v>18</v>
       </c>
@@ -9536,7 +9541,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="47">
         <v>19</v>
       </c>
@@ -9557,7 +9562,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="47">
         <v>20</v>
       </c>
@@ -9578,7 +9583,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="47">
         <v>21</v>
       </c>
@@ -9599,7 +9604,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="47">
         <v>22</v>
       </c>
@@ -9620,7 +9625,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="47">
         <v>23</v>
       </c>
@@ -9641,7 +9646,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="47">
         <v>24</v>
       </c>
@@ -9662,7 +9667,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="47">
         <v>25</v>
       </c>
@@ -9683,7 +9688,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="47">
         <v>26</v>
       </c>
@@ -9704,7 +9709,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="47">
         <v>27</v>
       </c>
@@ -9725,7 +9730,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="47">
         <v>28</v>
       </c>
@@ -9746,7 +9751,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="47">
         <v>29</v>
       </c>
@@ -9767,7 +9772,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="47">
         <v>30</v>
       </c>
@@ -9788,7 +9793,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="47">
         <v>31</v>
       </c>
@@ -9809,7 +9814,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="47">
         <v>32</v>
       </c>
@@ -9818,7 +9823,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="47">
         <v>33</v>
       </c>
@@ -9827,7 +9832,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="47">
         <v>34</v>
       </c>
@@ -9836,7 +9841,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="47">
         <v>35</v>
       </c>
@@ -9845,7 +9850,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="47">
         <v>36</v>
       </c>
@@ -9854,7 +9859,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="47">
         <v>37</v>
       </c>
@@ -9863,7 +9868,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="47">
         <v>38</v>
       </c>
@@ -9872,7 +9877,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="47">
         <v>39</v>
       </c>
@@ -9881,7 +9886,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="47">
         <v>40</v>
       </c>
@@ -9890,7 +9895,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="47">
         <v>41</v>
       </c>
@@ -9899,7 +9904,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="47">
         <v>42</v>
       </c>
@@ -9908,7 +9913,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="47">
         <v>43</v>
       </c>
@@ -9917,7 +9922,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="47">
         <v>44</v>
       </c>
@@ -9926,7 +9931,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="47">
         <v>45</v>
       </c>
@@ -9935,7 +9940,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="47">
         <v>46</v>
       </c>
@@ -9944,7 +9949,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="47">
         <v>47</v>
       </c>
@@ -9953,7 +9958,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="47">
         <v>48</v>
       </c>
@@ -9962,7 +9967,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="47">
         <v>49</v>
       </c>
@@ -9971,7 +9976,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="47">
         <v>50</v>
       </c>
@@ -9980,7 +9985,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="47">
         <v>51</v>
       </c>
@@ -9989,7 +9994,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="47">
         <v>52</v>
       </c>
@@ -9998,7 +10003,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="47">
         <v>53</v>
       </c>
@@ -10007,7 +10012,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="47">
         <v>54</v>
       </c>
@@ -10016,7 +10021,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="47">
         <v>55</v>
       </c>
@@ -10025,7 +10030,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="47">
         <v>56</v>
       </c>
@@ -10034,7 +10039,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="47">
         <v>57</v>
       </c>
@@ -10043,7 +10048,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="47">
         <v>58</v>
       </c>
@@ -10052,7 +10057,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="47">
         <v>59</v>
       </c>
@@ -10061,7 +10066,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="47">
         <v>60</v>
       </c>
@@ -10070,7 +10075,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/CASUAL/LA TICC/VILLANUEVA, RICHELLE ALEGRE.xlsx
+++ b/CASUAL/LA TICC/VILLANUEVA, RICHELLE ALEGRE.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="105">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1286,7 +1286,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K267" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K268" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -1645,12 +1645,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K267"/>
+  <dimension ref="A2:K268"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4245" topLeftCell="A96" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="B105" sqref="B105"/>
+      <selection pane="bottomLeft" activeCell="J105" sqref="J105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1821,7 +1821,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3951,10 +3951,10 @@
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="38">
-        <v>45352</v>
-      </c>
-      <c r="B105" s="20"/>
+      <c r="A105" s="38"/>
+      <c r="B105" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C105" s="13"/>
       <c r="D105" s="37"/>
       <c r="E105" s="9"/>
@@ -3963,14 +3963,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H105" s="37"/>
+      <c r="H105" s="37">
+        <v>1</v>
+      </c>
       <c r="I105" s="9"/>
       <c r="J105" s="11"/>
-      <c r="K105" s="20"/>
+      <c r="K105" s="45">
+        <v>45327</v>
+      </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="38">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3988,7 +3992,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="38">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4006,7 +4010,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="38">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -4024,7 +4028,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="38">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -4042,7 +4046,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="38">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -4060,7 +4064,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="38">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -4078,7 +4082,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="38">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -4096,7 +4100,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="38">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -4114,7 +4118,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="38">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -4132,7 +4136,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="38">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -4150,7 +4154,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="38">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -4168,7 +4172,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="38">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -4186,7 +4190,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="38">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -4204,7 +4208,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="38">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -4222,7 +4226,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="38">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -4240,7 +4244,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="38">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -4258,7 +4262,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="38">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -4276,7 +4280,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="38">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -4294,7 +4298,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="38">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -4312,7 +4316,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="38">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -4330,7 +4334,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="38">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -4348,7 +4352,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="38">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -4366,7 +4370,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="38">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -4384,7 +4388,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="38">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -4402,7 +4406,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="38">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -4420,7 +4424,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="38">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -4438,7 +4442,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="38">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -4456,7 +4460,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="38">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -4474,7 +4478,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="38">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -4492,7 +4496,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="38">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -4510,7 +4514,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="38">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -4528,7 +4532,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="38">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -4546,7 +4550,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="38">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -4564,7 +4568,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="38">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -4582,7 +4586,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="38">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -4600,7 +4604,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="38">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -4618,7 +4622,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="38">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -4636,7 +4640,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="38">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -4653,7 +4657,9 @@
       <c r="K143" s="20"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="38"/>
+      <c r="A144" s="38">
+        <v>46508</v>
+      </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
       <c r="D144" s="37"/>
@@ -6621,20 +6627,36 @@
       <c r="K266" s="20"/>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A267" s="39"/>
-      <c r="B267" s="15"/>
-      <c r="C267" s="40"/>
-      <c r="D267" s="41"/>
+      <c r="A267" s="38"/>
+      <c r="B267" s="20"/>
+      <c r="C267" s="13"/>
+      <c r="D267" s="37"/>
       <c r="E267" s="9"/>
-      <c r="F267" s="15"/>
-      <c r="G267" s="40" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H267" s="41"/>
+      <c r="F267" s="20"/>
+      <c r="G267" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H267" s="37"/>
       <c r="I267" s="9"/>
-      <c r="J267" s="12"/>
-      <c r="K267" s="15"/>
+      <c r="J267" s="11"/>
+      <c r="K267" s="20"/>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A268" s="39"/>
+      <c r="B268" s="15"/>
+      <c r="C268" s="40"/>
+      <c r="D268" s="41"/>
+      <c r="E268" s="9"/>
+      <c r="F268" s="15"/>
+      <c r="G268" s="40" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H268" s="41"/>
+      <c r="I268" s="9"/>
+      <c r="J268" s="12"/>
+      <c r="K268" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8966,17 +8988,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
